--- a/master_data/society/Maharashtra/Pune/pune-ImportSocietyToNewPropdial.xlsx
+++ b/master_data/society/Maharashtra/Pune/pune-ImportSocietyToNewPropdial.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6374A20C-E21A-453D-9685-359B923E12C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="205">
   <si>
     <t>city</t>
   </si>
@@ -42,53 +43,614 @@
     <t>society</t>
   </si>
   <si>
-    <t>_delhi</t>
-  </si>
-  <si>
-    <t>_delhi_delhi_central</t>
-  </si>
-  <si>
-    <t>_delhi_delhi_central_connaught_place</t>
-  </si>
-  <si>
-    <t>Silver Arch Apartments</t>
-  </si>
-  <si>
-    <t>Pataudi House</t>
-  </si>
-  <si>
-    <t>_delhi_delhi_central_darya_ganj</t>
-  </si>
-  <si>
-    <t>Anand Estate</t>
-  </si>
-  <si>
-    <t>Dda Flat</t>
-  </si>
-  <si>
-    <t>DDA MIG Flats</t>
-  </si>
-  <si>
-    <t>RWA Joshi Lane</t>
-  </si>
-  <si>
-    <t>Unity The Amaryllis</t>
-  </si>
-  <si>
-    <t>_delhi_delhi_central_karol_bagh</t>
+    <t>_maharashtra</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune</t>
+  </si>
+  <si>
+    <t>Sai Heritage</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_aundh</t>
+  </si>
+  <si>
+    <t>F-Residences</t>
+  </si>
+  <si>
+    <t>The Parkland</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_balewadi</t>
+  </si>
+  <si>
+    <t>Aldea Espanola</t>
+  </si>
+  <si>
+    <t>Hill View Residency</t>
+  </si>
+  <si>
+    <t>Rohan Laher</t>
+  </si>
+  <si>
+    <t>Rohan Leher Phase 1</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_baner</t>
+  </si>
+  <si>
+    <t>Western Hills</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_baner-sus_road</t>
+  </si>
+  <si>
+    <t>Sunwinds</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_bavdhan</t>
+  </si>
+  <si>
+    <t>5 Star Apartment</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_bund_garden_road</t>
+  </si>
+  <si>
+    <t>Renuka Morya Park</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_chaphekar_chowk</t>
+  </si>
+  <si>
+    <t>Pride World City</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_charholi</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_charholi_budruk</t>
+  </si>
+  <si>
+    <t>Sai Mauli Niwas</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_chinchwad</t>
+  </si>
+  <si>
+    <t>Sonigara Nilay</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_chinchwadgaon</t>
+  </si>
+  <si>
+    <t>Gayatrree Landmark</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_dhange_chowk_flyover</t>
+  </si>
+  <si>
+    <t>Brahma Sky City</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_dhanori</t>
+  </si>
+  <si>
+    <t>Dhanshree cooperative society</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_ganesh_nagar</t>
+  </si>
+  <si>
+    <t>Kalpataru Serenety Manjari</t>
+  </si>
+  <si>
+    <t>Manjari Greens Annexe</t>
+  </si>
+  <si>
+    <t>Manjri Greenwoods</t>
+  </si>
+  <si>
+    <t>Shakuntal park</t>
+  </si>
+  <si>
+    <t>Suyog samrudhi</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_hadapsar</t>
+  </si>
+  <si>
+    <t>Kul - Kul Ecoloch</t>
+  </si>
+  <si>
+    <t>Vivansaa Cellandine</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_hinjewadi</t>
+  </si>
+  <si>
+    <t>Atharwa Residency</t>
+  </si>
+  <si>
+    <t>Blue Ridge township</t>
+  </si>
+  <si>
+    <t>COOP HOUSING SOC</t>
+  </si>
+  <si>
+    <t>Godrej Elements</t>
+  </si>
+  <si>
+    <t>Scrum Utkarsh</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_hinjewadi_phase_1</t>
+  </si>
+  <si>
+    <t>Geras Imperium Rise</t>
+  </si>
+  <si>
+    <t>High Mont Sky High Society</t>
+  </si>
+  <si>
+    <t>Tinsel Town</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_hinjewadi_phase_2</t>
+  </si>
+  <si>
+    <t>Apostrophe Hinjewadi</t>
+  </si>
+  <si>
+    <t>Eon Homes A1</t>
+  </si>
+  <si>
+    <t>Fusion Towers</t>
+  </si>
+  <si>
+    <t>Megapolis Mystic</t>
+  </si>
+  <si>
+    <t>Megapolis Sangria</t>
+  </si>
+  <si>
+    <t>Megapolis Sparklet</t>
+  </si>
+  <si>
+    <t>Megapolis Splendour</t>
+  </si>
+  <si>
+    <t>Megapolis Springs</t>
+  </si>
+  <si>
+    <t>Megapolis Sunway</t>
+  </si>
+  <si>
+    <t>Sangria Towers</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_hinjewadi_phase_3</t>
+  </si>
+  <si>
+    <t>Kamdhenu Siddhi Apartment</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_jijai_nagar</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>Peacock Palace</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_kalyani_nagar</t>
+  </si>
+  <si>
+    <t>Marigold Premises</t>
+  </si>
+  <si>
+    <t>Bon Vivant</t>
+  </si>
+  <si>
+    <t>Konark Krish</t>
+  </si>
+  <si>
+    <t>Venkatesh Graffiti</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_keshav_nagar</t>
+  </si>
+  <si>
+    <t>Gera's Imperium</t>
+  </si>
+  <si>
+    <t>Riverdale Heights</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_kharadi</t>
+  </si>
+  <si>
+    <t>Two Roses</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_kondhwa</t>
+  </si>
+  <si>
+    <t>Fortune Perfect</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_kondhwa_budruk</t>
+  </si>
+  <si>
+    <t>Paramount Smart city</t>
+  </si>
+  <si>
+    <t>Splendid Square</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_lohegaon</t>
+  </si>
+  <si>
+    <t>COSMOS</t>
+  </si>
+  <si>
+    <t>Daffodils</t>
+  </si>
+  <si>
+    <t>Magarpatta township</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_magarpatta_city</t>
+  </si>
+  <si>
+    <t>Kul Kul Ecoloch</t>
+  </si>
+  <si>
+    <t>Kulecoloch</t>
+  </si>
+  <si>
+    <t>Nande-Balewadi Road</t>
+  </si>
+  <si>
+    <t>VTP Town Square</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_mahalunge</t>
+  </si>
+  <si>
+    <t>Air Castles</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_marunji</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_morwadi</t>
+  </si>
+  <si>
+    <t>Pristine Pacific Phase 1</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_narhe_ambegaon_rd</t>
+  </si>
+  <si>
+    <t>Xrbia Township</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_nere</t>
+  </si>
+  <si>
+    <t>Treasure Park</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_padmavati</t>
+  </si>
+  <si>
+    <t>Kumar Shantiniketan</t>
+  </si>
+  <si>
+    <t>Poorva Heights</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_pashan-sus_road</t>
+  </si>
+  <si>
+    <t>Viva Hillside Homes</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_paud_road</t>
+  </si>
+  <si>
+    <t>Akshay Nagar Phase I</t>
+  </si>
+  <si>
+    <t>Gokuldham CHS</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_pimple_nilakh</t>
+  </si>
+  <si>
+    <t>Deepmala Apartmenent</t>
+  </si>
+  <si>
+    <t>Dwarka Suncrest Phase III</t>
+  </si>
+  <si>
+    <t>Ganesha Phase 2</t>
+  </si>
+  <si>
+    <t>Kunal Icon CHS</t>
+  </si>
+  <si>
+    <t>Nisarg Nirmiti</t>
+  </si>
+  <si>
+    <t>ROSE ICON</t>
+  </si>
+  <si>
+    <t>Roseland Residency</t>
+  </si>
+  <si>
+    <t>Sai Ambience</t>
+  </si>
+  <si>
+    <t>Sai MariGold</t>
+  </si>
+  <si>
+    <t>Solitaire Residency</t>
+  </si>
+  <si>
+    <t>Sunshine Villas</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_pimple_saudagar</t>
+  </si>
+  <si>
+    <t>Elena Homes</t>
+  </si>
+  <si>
+    <t>Sai Avenue</t>
+  </si>
+  <si>
+    <t>Venkatesh Imperia</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_pimpri_chinchwad</t>
+  </si>
+  <si>
+    <t>Siyona Building</t>
+  </si>
+  <si>
+    <t>Greenlands Society</t>
+  </si>
+  <si>
+    <t>Palladio Apartment</t>
+  </si>
+  <si>
+    <t>Siyona Pethkar</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_punawale</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_punvale_bazar</t>
+  </si>
+  <si>
+    <t>Silver Palm Grove</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_ravet</t>
+  </si>
+  <si>
+    <t>Kumar Primavera</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_sainathnagar</t>
+  </si>
+  <si>
+    <t>Florida River Bank</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_sharad_nagar</t>
+  </si>
+  <si>
+    <t>Godrej Nurture</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_st_tukaram_nagar</t>
+  </si>
+  <si>
+    <t>Aarohi</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_sus</t>
+  </si>
+  <si>
+    <t>Manjri Budruk</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_taluka-haveli</t>
+  </si>
+  <si>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>DNV Elite Homes</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_tathawade</t>
+  </si>
+  <si>
+    <t>Godrej greens</t>
+  </si>
+  <si>
+    <t>Godrej Prana</t>
+  </si>
+  <si>
+    <t>Nyati Evara</t>
+  </si>
+  <si>
+    <t>Sai Ganga Housing Colony</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_undri</t>
+  </si>
+  <si>
+    <t>Alfa Greenfields</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_vadgaon_maval</t>
+  </si>
+  <si>
+    <t>Lunkad Queensland</t>
+  </si>
+  <si>
+    <t>Mystique Moods</t>
+  </si>
+  <si>
+    <t>Viman Platinum</t>
+  </si>
+  <si>
+    <t>Zircon</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_viman_nagar</t>
+  </si>
+  <si>
+    <t>Nisarg Akash, Pimple Nilakh</t>
+  </si>
+  <si>
+    <t>Orange Province</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_vishal_nagar</t>
+  </si>
+  <si>
+    <t>Jai Ganesh Vishwa</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_vishrantwadi</t>
+  </si>
+  <si>
+    <t>Brahma Suncity</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_wadgaon_sheri</t>
+  </si>
+  <si>
+    <t>Aparna Consructions and Estates</t>
+  </si>
+  <si>
+    <t>Arista building</t>
+  </si>
+  <si>
+    <t>Baudhi Rd</t>
+  </si>
+  <si>
+    <t>Ivy Botanica</t>
+  </si>
+  <si>
+    <t>Mantra Blessings</t>
+  </si>
+  <si>
+    <t>Serene Complex</t>
+  </si>
+  <si>
+    <t>Solacia phase II</t>
+  </si>
+  <si>
+    <t>VTP PURVANCHAL</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_wagholi</t>
+  </si>
+  <si>
+    <t>Akshar Elementa</t>
+  </si>
+  <si>
+    <t>Bhuvi Apartments</t>
+  </si>
+  <si>
+    <t>Capital Tower</t>
+  </si>
+  <si>
+    <t>Icon Linera CHS</t>
+  </si>
+  <si>
+    <t>Kalpataru Exquisite</t>
+  </si>
+  <si>
+    <t>Kalpataru Splendeur</t>
+  </si>
+  <si>
+    <t>Nandan Inspera</t>
+  </si>
+  <si>
+    <t>Nisarg Vishwa</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>Park Street</t>
+  </si>
+  <si>
+    <t>Parkwayz Society</t>
+  </si>
+  <si>
+    <t>Shankar Kalat Nagar</t>
+  </si>
+  <si>
+    <t>The Address Commercia</t>
+  </si>
+  <si>
+    <t>Topaz Park</t>
+  </si>
+  <si>
+    <t>Western Avenue</t>
+  </si>
+  <si>
+    <t>Whistling Palms</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_wakad</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_wakadewadi</t>
+  </si>
+  <si>
+    <t>Utopia</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_wanowrie</t>
+  </si>
+  <si>
+    <t>_maharashtra_pune_wanwadi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +673,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,13 +731,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +783,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +817,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +852,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,23 +1028,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -493,143 +1064,2883 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" t="s">
+        <v>157</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E109" t="s">
+        <v>161</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" t="s">
+        <v>163</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" t="s">
+        <v>164</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112" t="s">
+        <v>165</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E113" t="s">
+        <v>166</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E114" t="s">
+        <v>168</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" t="s">
+        <v>171</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" t="s">
+        <v>173</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" t="s">
+        <v>175</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" t="s">
+        <v>176</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" t="s">
+        <v>177</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E122" t="s">
+        <v>179</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E123" t="s">
+        <v>180</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" t="s">
+        <v>181</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" t="s">
+        <v>184</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" t="s">
+        <v>185</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E130" t="s">
+        <v>188</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" t="s">
+        <v>189</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E132" t="s">
+        <v>190</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E133" t="s">
+        <v>191</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E134" t="s">
+        <v>192</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E135" t="s">
+        <v>193</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136" t="s">
+        <v>194</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" t="s">
+        <v>195</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" t="s">
+        <v>196</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E139" t="s">
+        <v>197</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E140" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E141" t="s">
+        <v>198</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" t="s">
+        <v>199</v>
+      </c>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" t="s">
+        <v>188</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" t="s">
+        <v>202</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F145" t="s">
         <v>5</v>
       </c>
     </row>
@@ -647,24 +3958,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
